--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed5/result_data_RandomForest.xlsx
@@ -466,7 +466,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.193600000000002</v>
+        <v>-7.700799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.995800000000004</v>
+        <v>-8.054500000000008</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.806999999999999</v>
+        <v>-8.1595</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.316999999999995</v>
+        <v>6.258999999999998</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4228</v>
+        <v>-21.41779999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.046499999999995</v>
+        <v>8.434800000000003</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.41359999999999</v>
+        <v>-12.5385</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.9316</v>
+        <v>-7.918099999999999</v>
       </c>
     </row>
     <row r="28">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.083200000000004</v>
+        <v>5.663600000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.1418</v>
+        <v>-21.1021</v>
       </c>
       <c r="B32" t="n">
-        <v>6.135699999999995</v>
+        <v>6.836199999999996</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>10.0446</v>
+        <v>9.959800000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.2178</v>
+        <v>-19.8952</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.14159999999999</v>
+        <v>-19.80959999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-10.99140000000001</v>
+        <v>-10.8312</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.3563</v>
+        <v>10.1315</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.95649999999999</v>
+        <v>-21.97959999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.9797</v>
+        <v>-11.035</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.8404</v>
+        <v>-21.90069999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>4.5618</v>
+        <v>4.7242</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.64939999999999</v>
+        <v>-21.70970000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.731000000000006</v>
+        <v>-7.882800000000002</v>
       </c>
     </row>
     <row r="56">
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.56719999999996</v>
+        <v>-21.50739999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64519999999997</v>
+        <v>-21.61879999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.0654</v>
+        <v>-22.0325</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.6825</v>
+        <v>-13.2593</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.779100000000001</v>
+        <v>-7.617499999999998</v>
       </c>
     </row>
     <row r="81">
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.8147</v>
+        <v>-13.6642</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-14.11759999999999</v>
+        <v>-14.26279999999999</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.3104</v>
+        <v>-14.14709999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.70919999999998</v>
+        <v>-20.89509999999997</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.491700000000003</v>
+        <v>-7.438500000000004</v>
       </c>
     </row>
     <row r="96">
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.4525</v>
+        <v>-10.3592</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.126800000000002</v>
+        <v>6.798199999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1810,15 +1810,15 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.157</v>
+        <v>-8.422600000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-22.1291</v>
+        <v>-22.01109999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>5.699899999999997</v>
+        <v>5.633499999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.108600000000001</v>
+        <v>4.3532</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-14.37899999999999</v>
+        <v>-13.62959999999999</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.6802</v>
+        <v>-21.7119</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
